--- a/03 - Program Outputs/Chart_1.xlsx
+++ b/03 - Program Outputs/Chart_1.xlsx
@@ -45,253 +45,253 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCE0C0C"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1C118"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20B620"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20C9C9"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B0BBF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCA23CA"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20C9C9"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B0BBF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCA23CA"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20C9C9"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCA23CA"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B0BBF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20B620"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCA23CA"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1C118"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B0BBF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20C9C9"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20B620"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCA23CA"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20C9C9"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE0C0C"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1C118"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B0BBF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1C118"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE0C0C"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20B620"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE0C0C"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCA23CA"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20B620"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE0C0C"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1C118"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCA23CA"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20C9C9"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B0BBF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20B620"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE0C0C"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20B620"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B0BBF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCE0C0C"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1C118"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF20C9C9"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1C118"/>
+        <fgColor rgb="FFA61717"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABAB10"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1AC01A"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19BDBD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F0FAB"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE17AE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA61717"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1AC01A"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE17AE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA61717"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABAB10"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE17AE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE17AE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1AC01A"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA61717"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABAB10"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE17AE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABAB10"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19BDBD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F0FAB"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA61717"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1AC01A"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F0FAB"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19BDBD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABAB10"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE17AE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1AC01A"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F0FAB"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE17AE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F0FAB"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19BDBD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19BDBD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19BDBD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1AC01A"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA61717"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F0FAB"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABAB10"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F0FAB"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1AC01A"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19BDBD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABAB10"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA61717"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -1021,99 +1021,99 @@
       <c r="A1" s="1" t="str">
         <v>M0</v>
       </c>
-      <c r="G1" s="11">
+      <c r="C1" s="11">
+        <v>3</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="Q1" s="18">
+        <v>10</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="25">
         <v>5</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="V1" s="20">
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="28">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AP1" s="37">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="38">
         <v>10</v>
       </c>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="26">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="30">
-        <v>9</v>
-      </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="35">
-        <v>3</v>
-      </c>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="41">
-        <v>10</v>
-      </c>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="41"/>
-      <c r="BD1" s="41"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
         <v>M1</v>
       </c>
-      <c r="B2" s="8">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10">
+      <c r="B2" s="10">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="K2" s="13">
-        <v>3</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="16">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="12">
         <v>8</v>
       </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="16">
+        <v>6</v>
+      </c>
+      <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="AI2" s="28">
-        <v>6</v>
-      </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AR2" s="36">
+      <c r="S2" s="20">
+        <v>5</v>
+      </c>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="AA2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AO2" s="35">
         <v>1</v>
       </c>
     </row>
@@ -1121,113 +1121,113 @@
       <c r="A3" s="1" t="str">
         <v>M2</v>
       </c>
-      <c r="B3" s="9">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="14">
+      <c r="M3" s="17">
         <v>5</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="18">
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="21">
+        <v>9</v>
+      </c>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AF3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="32">
         <v>5</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="22">
-        <v>1</v>
-      </c>
-      <c r="V3" s="23">
-        <v>5</v>
-      </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AO3" s="33">
-        <v>1</v>
-      </c>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
         <v>M3</v>
       </c>
-      <c r="J4" s="12">
+      <c r="E4" s="13">
         <v>3</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="P4" s="19">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15">
         <v>4</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="U4" s="21">
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="S4" s="22">
+        <v>7</v>
+      </c>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="AL4" s="33">
         <v>3</v>
       </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="AO4" s="31">
-        <v>7</v>
-      </c>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="31"/>
-      <c r="AV4" s="39">
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AS4" s="39">
         <v>1</v>
       </c>
-      <c r="BE4" s="43">
+      <c r="BC4" s="42">
         <v>4</v>
       </c>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
         <v>M4</v>
       </c>
-      <c r="N5" s="17">
+      <c r="R5" s="19">
+        <v>10</v>
+      </c>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="27">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="29">
         <v>5</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="AA5" s="25">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="29">
-        <v>4</v>
-      </c>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
       <c r="AO5" s="34">
         <v>8</v>
       </c>
@@ -1238,83 +1238,83 @@
       <c r="AT5" s="34"/>
       <c r="AU5" s="34"/>
       <c r="AV5" s="34"/>
-      <c r="AW5" s="38">
+      <c r="AW5" s="40">
         <v>7</v>
       </c>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="40">
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="40"/>
+      <c r="BB5" s="40"/>
+      <c r="BC5" s="40"/>
+      <c r="BD5" s="43">
         <v>6</v>
       </c>
-      <c r="BE5" s="40"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="40"/>
-      <c r="BH5" s="40"/>
-      <c r="BI5" s="40"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
         <v>M5</v>
       </c>
-      <c r="M6" s="15">
+      <c r="H6" s="14">
         <v>9</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="24">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="23">
+        <v>8</v>
+      </c>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="AB6" s="26">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="31">
         <v>4</v>
       </c>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="27">
-        <v>8</v>
-      </c>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AK6" s="32">
-        <v>10</v>
-      </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AV6" s="37">
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="36">
         <v>3</v>
       </c>
-      <c r="AW6" s="37"/>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="42">
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AW6" s="41">
         <v>9</v>
       </c>
-      <c r="AZ6" s="42"/>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
+      <c r="AX6" s="41"/>
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="41"/>
+      <c r="BC6" s="41"/>
+      <c r="BD6" s="41"/>
+      <c r="BE6" s="41"/>
     </row>
     <row r="7">
       <c r="B7">
